--- a/퍼즐 문제만.xlsx
+++ b/퍼즐 문제만.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\W04_OnlyThreeColors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9390D40A-3D63-4799-8A36-4976E5906218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7FA18-EEAD-424A-8DA1-C65C35C709D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{1B773F51-1B81-4D0B-B628-BF89BFA2839D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>12L</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,6 +116,90 @@
   </si>
   <si>
     <t>(medium easy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(easy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(m easy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BD1B8-D55E-479F-9142-8297ADBBD172}">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:BY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BU19" sqref="BU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="F1" s="4"/>
       <c r="I1" s="4"/>
@@ -538,8 +622,17 @@
       <c r="AH1" s="1"/>
       <c r="AK1" s="2"/>
       <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR1" s="1"/>
+      <c r="AV1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="BC1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BJ1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BQ1" s="1"/>
+      <c r="BY1" s="1"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
@@ -551,8 +644,17 @@
       <c r="AH2" s="1"/>
       <c r="AK2" s="3"/>
       <c r="AO2" s="1"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR2" s="1"/>
+      <c r="AV2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="BC2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BJ2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BQ2" s="2"/>
+      <c r="BY2" s="1"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="F3" s="4"/>
       <c r="I3" s="4"/>
@@ -564,8 +666,17 @@
       <c r="AH3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AO3" s="2"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR3" s="2"/>
+      <c r="AV3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="BC3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BJ3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BQ3" s="3"/>
+      <c r="BY3" s="1"/>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
@@ -577,8 +688,17 @@
       <c r="AH4" s="2"/>
       <c r="AK4" s="1"/>
       <c r="AO4" s="2"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR4" s="2"/>
+      <c r="AV4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="BC4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BJ4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BY4" s="1"/>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
@@ -590,8 +710,18 @@
       <c r="AH5" s="2"/>
       <c r="AK5" s="3"/>
       <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR5" s="3"/>
+      <c r="AV5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BQ5" s="2"/>
+      <c r="BU5" s="3"/>
+      <c r="BY5" s="1"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" s="3"/>
@@ -603,8 +733,18 @@
       <c r="AH6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BJ6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BQ6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BY6" s="2"/>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="3"/>
@@ -632,8 +772,82 @@
       <c r="AO7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU7" s="3"/>
+      <c r="BY7" s="2"/>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="F8" s="2"/>
       <c r="I8" s="3"/>
@@ -647,8 +861,22 @@
       <c r="AJ8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU8" s="1"/>
+      <c r="BY8" s="2"/>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="F9" s="2"/>
       <c r="I9" s="2"/>
@@ -659,8 +887,10 @@
       <c r="AA9" s="2"/>
       <c r="AD9" s="1"/>
       <c r="AH9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU9" s="1"/>
+      <c r="BY9" s="2"/>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="F10" s="3"/>
       <c r="I10" s="2"/>
@@ -687,8 +917,10 @@
       <c r="AH10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU10" s="1"/>
+      <c r="BY10" s="2"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="F11" s="3"/>
       <c r="I11" s="2"/>
@@ -701,8 +933,10 @@
       <c r="AC11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU11" s="3"/>
+      <c r="BY11" s="3"/>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="F12" s="3"/>
       <c r="I12" s="2"/>
@@ -712,8 +946,11 @@
       <c r="W12" s="2"/>
       <c r="X12" s="1"/>
       <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU12" s="2"/>
+      <c r="BW12" s="1"/>
+      <c r="BY12" s="3"/>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -771,8 +1008,11 @@
       <c r="W13" s="2"/>
       <c r="X13" s="1"/>
       <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU13" s="2"/>
+      <c r="BW13" s="1"/>
+      <c r="BY13" s="3"/>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -785,23 +1025,65 @@
       <c r="W14" s="3"/>
       <c r="X14" s="1"/>
       <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU14" s="2"/>
+      <c r="BW14" s="2"/>
+      <c r="BY14" s="3"/>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="BU15" s="2"/>
+      <c r="BW15" s="3"/>
+      <c r="BY15" s="3"/>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="BS16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="22:76" x14ac:dyDescent="0.3">
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="BT17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="22:76" x14ac:dyDescent="0.3">
       <c r="V18" t="s">
         <v>12</v>
       </c>

--- a/퍼즐 문제만.xlsx
+++ b/퍼즐 문제만.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungle\W04_OnlyThreeColors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7FA18-EEAD-424A-8DA1-C65C35C709D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA94C1-3102-4B0F-B06A-B355B10514BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{1B773F51-1B81-4D0B-B628-BF89BFA2839D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>12L</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,27 +103,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>7번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>3L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inf.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(medium easy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6L</t>
+    <t>13번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(medium)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(tutorial)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inf.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,31 +211,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(easy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(m easy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13L</t>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,11 +239,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4L</t>
+    <t>7L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(hard)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -199,7 +275,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
+    <t>16번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +333,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BD1B8-D55E-479F-9142-8297ADBBD172}">
-  <dimension ref="A1:BY18"/>
+  <dimension ref="A1:DI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BU19" sqref="BU19"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="DC19" sqref="DC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="F1" s="4"/>
       <c r="I1" s="4"/>
@@ -631,8 +716,15 @@
       <c r="BM1" s="2"/>
       <c r="BQ1" s="1"/>
       <c r="BY1" s="1"/>
-    </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CM1" s="4"/>
+      <c r="CP1" s="3"/>
+      <c r="CT1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DI1" s="3"/>
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
@@ -653,8 +745,15 @@
       <c r="BM2" s="3"/>
       <c r="BQ2" s="2"/>
       <c r="BY2" s="1"/>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB2" s="1"/>
+      <c r="CF2" s="2"/>
+      <c r="CM2" s="4"/>
+      <c r="CP2" s="2"/>
+      <c r="CT2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DI2" s="3"/>
+    </row>
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="F3" s="4"/>
       <c r="I3" s="4"/>
@@ -675,8 +774,15 @@
       <c r="BM3" s="1"/>
       <c r="BQ3" s="3"/>
       <c r="BY3" s="1"/>
-    </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB3" s="2"/>
+      <c r="CF3" s="5"/>
+      <c r="CM3" s="2"/>
+      <c r="CP3" s="3"/>
+      <c r="CT3" s="2"/>
+      <c r="DA3" s="1"/>
+      <c r="DI3" s="2"/>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
@@ -697,8 +803,15 @@
       <c r="BM4" s="1"/>
       <c r="BQ4" s="1"/>
       <c r="BY4" s="1"/>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB4" s="2"/>
+      <c r="CF4" s="1"/>
+      <c r="CM4" s="2"/>
+      <c r="CP4" s="3"/>
+      <c r="CT4" s="2"/>
+      <c r="DA4" s="1"/>
+      <c r="DI4" s="2"/>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
@@ -720,8 +833,16 @@
       <c r="BQ5" s="2"/>
       <c r="BU5" s="3"/>
       <c r="BY5" s="1"/>
-    </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB5" s="5"/>
+      <c r="CF5" s="2"/>
+      <c r="CM5" s="3"/>
+      <c r="CP5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DD5" s="4"/>
+      <c r="DI5" s="4"/>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" s="3"/>
@@ -743,8 +864,17 @@
       <c r="BQ6" s="3"/>
       <c r="BU6" s="3"/>
       <c r="BY6" s="2"/>
-    </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CB6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CM6" s="3"/>
+      <c r="CP6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CX6" s="1"/>
+      <c r="DA6" s="2"/>
+      <c r="DD6" s="4"/>
+      <c r="DI6" s="4"/>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="F7" s="2"/>
       <c r="I7" s="3"/>
@@ -761,93 +891,118 @@
         <v>18</v>
       </c>
       <c r="AL7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="s">
         <v>5</v>
       </c>
       <c r="AQ7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AS7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AV7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BC7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BE7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BF7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BG7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="BH7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BI7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BJ7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BL7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="BM7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BN7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="BO7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BP7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BQ7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BU7" s="3"/>
       <c r="BY7" s="2"/>
-    </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CA7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="3"/>
+      <c r="CP7" s="1"/>
+      <c r="CT7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DD7" s="4"/>
+      <c r="DI7" s="3"/>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="F8" s="2"/>
       <c r="I8" s="3"/>
@@ -859,24 +1014,35 @@
       <c r="AD8" s="2"/>
       <c r="AH8" s="3"/>
       <c r="AJ8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="BE8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="BL8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="BU8" s="1"/>
       <c r="BY8" s="2"/>
-    </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM8" s="4"/>
+      <c r="CP8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="1"/>
+      <c r="DA8" s="2"/>
+      <c r="DD8" s="4"/>
+      <c r="DI8" s="3"/>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="F9" s="2"/>
       <c r="I9" s="2"/>
@@ -889,8 +1055,17 @@
       <c r="AH9" s="3"/>
       <c r="BU9" s="1"/>
       <c r="BY9" s="2"/>
-    </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI9" s="3"/>
+      <c r="CM9" s="4"/>
+      <c r="CP9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="1"/>
+      <c r="DA9" s="3"/>
+      <c r="DD9" s="3"/>
+      <c r="DI9" s="3"/>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="F10" s="3"/>
       <c r="I10" s="2"/>
@@ -919,8 +1094,17 @@
       </c>
       <c r="BU10" s="1"/>
       <c r="BY10" s="2"/>
-    </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI10" s="3"/>
+      <c r="CM10" s="2"/>
+      <c r="CP10" s="1"/>
+      <c r="CT10" s="3"/>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="1"/>
+      <c r="DA10" s="3"/>
+      <c r="DD10" s="3"/>
+      <c r="DI10" s="4"/>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="F11" s="3"/>
       <c r="I11" s="2"/>
@@ -935,8 +1119,19 @@
       </c>
       <c r="BU11" s="3"/>
       <c r="BY11" s="3"/>
-    </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="4"/>
+      <c r="CM11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CT11" s="3"/>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="2"/>
+      <c r="DA11" s="3"/>
+      <c r="DD11" s="3"/>
+      <c r="DI11" s="4"/>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="F12" s="3"/>
       <c r="I12" s="2"/>
@@ -949,8 +1144,20 @@
       <c r="BU12" s="2"/>
       <c r="BW12" s="1"/>
       <c r="BY12" s="3"/>
-    </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="4"/>
+      <c r="CM12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CX12" s="3"/>
+      <c r="CY12" s="2"/>
+      <c r="DA12" s="3"/>
+      <c r="DD12" s="3"/>
+      <c r="DE12" s="2"/>
+      <c r="DI12" s="2"/>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1011,10 +1218,37 @@
       <c r="BU13" s="2"/>
       <c r="BW13" s="1"/>
       <c r="BY13" s="3"/>
-    </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="4"/>
+      <c r="CM13" s="3"/>
+      <c r="CP13" s="2"/>
+      <c r="CT13" s="3"/>
+      <c r="CV13" t="s">
+        <v>51</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>52</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>53</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>54</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD13" s="3"/>
+      <c r="DE13" s="2"/>
+      <c r="DI13" s="2"/>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1028,62 +1262,168 @@
       <c r="BU14" s="2"/>
       <c r="BW14" s="2"/>
       <c r="BY14" s="3"/>
-    </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="4"/>
+      <c r="CM14" s="3"/>
+      <c r="CO14" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>57</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>60</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD14" s="3"/>
+      <c r="DE14" s="2"/>
+      <c r="DI14" s="3"/>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="BU15" s="2"/>
       <c r="BW15" s="3"/>
       <c r="BY15" s="3"/>
-    </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="CH15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>49</v>
+      </c>
+      <c r="DD15" s="3"/>
+      <c r="DE15" s="2"/>
+      <c r="DI15" s="3"/>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="BS16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BT16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="BU16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="BV16" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH16" t="s">
         <v>37</v>
       </c>
-      <c r="BW16" t="s">
-        <v>38</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>27</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="22:76" x14ac:dyDescent="0.3">
+      <c r="DC16" t="s">
+        <v>62</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>4</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="22:107" x14ac:dyDescent="0.3">
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="AA17" s="3"/>
+      <c r="BS17" t="s">
+        <v>36</v>
+      </c>
       <c r="BT17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="BU17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="BV17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BW17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="BX17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="22:76" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="22:107" x14ac:dyDescent="0.3">
       <c r="V18" t="s">
         <v>12</v>
       </c>
@@ -1101,6 +1441,11 @@
       </c>
       <c r="AA18" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="22:107" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
